--- a/data/octanol_30pct_avoidance_210831.xlsx
+++ b/data/octanol_30pct_avoidance_210831.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\friv\git\cest-2.1-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\friv\git\cest-2.1-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855B8850-B82D-4C13-A078-578D3F6E454C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B41E7E-E37E-4030-9BD9-21A592423C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D136331F-2801-44B4-9363-C9141C0F51F1}"/>
   </bookViews>
@@ -70,6 +70,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,7 +110,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,15 +427,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37455615-6171-459D-A0D3-AA5F1B394364}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
